--- a/example/ZXFileBrowserDemo/test.xlsx
+++ b/example/ZXFileBrowserDemo/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damon/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damon/Github_code/zxkit/ZXFileBrowser/example/ZXFileBrowserDemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{123D8C24-FF70-4847-B686-3F1ECDDE8B76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906CCC4D-CBEB-5C4D-9B6F-87BB7E4CE40A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16940" xr2:uid="{903CC3E0-3960-2449-9C5A-3104B30CF428}"/>
   </bookViews>
@@ -22,6 +22,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,12 +400,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0B9737-A5CF-754C-A2ED-5684DCA755C7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
